--- a/_notes_/Animal Companions/AnimalCompanionWorksheet.xlsx
+++ b/_notes_/Animal Companions/AnimalCompanionWorksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="315" windowWidth="27555" windowHeight="10785" tabRatio="843" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="600" yWindow="315" windowWidth="27555" windowHeight="10785" tabRatio="843" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Boneclaw_AC" sheetId="4" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Kestrekel_AC" sheetId="10" r:id="rId10"/>
     <sheet name="Owl_AC" sheetId="11" r:id="rId11"/>
     <sheet name="Viper, Medium_AC" sheetId="12" r:id="rId12"/>
+    <sheet name="Eagle_AC" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="109">
   <si>
     <t>Progression:</t>
   </si>
@@ -343,6 +344,15 @@
   </si>
   <si>
     <t>Venom DC+</t>
+  </si>
+  <si>
+    <t>Low Light Vision*</t>
+  </si>
+  <si>
+    <t>Listen +4, Spot +16</t>
+  </si>
+  <si>
+    <t>Improved Evasion</t>
   </si>
 </sst>
 </file>
@@ -2741,7 +2751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -3263,6 +3273,535 @@
         <v>23</v>
       </c>
       <c r="J22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM(G6+2)</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G12" si="0">SUM(G7+2)</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM(G12+2)</f>
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:G22" si="1">SUM(G16+2)</f>
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_notes_/Animal Companions/AnimalCompanionWorksheet.xlsx
+++ b/_notes_/Animal Companions/AnimalCompanionWorksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="315" windowWidth="27555" windowHeight="10785" tabRatio="843" activeTab="12"/>
+    <workbookView xWindow="600" yWindow="315" windowWidth="27555" windowHeight="10785" tabRatio="843" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Boneclaw_AC" sheetId="4" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="Owl_AC" sheetId="11" r:id="rId11"/>
     <sheet name="Viper, Medium_AC" sheetId="12" r:id="rId12"/>
     <sheet name="Eagle_AC" sheetId="13" r:id="rId13"/>
+    <sheet name="Rasclinn_AC" sheetId="14" r:id="rId14"/>
+    <sheet name="Viper, Large_AC" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="114">
   <si>
     <t>Progression:</t>
   </si>
@@ -353,6 +355,21 @@
   </si>
   <si>
     <t>Improved Evasion</t>
+  </si>
+  <si>
+    <t>Hide +15, Listen +11, Spot +7, Survival +9</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Low Light Vision* , Alertness*, Weapon Finesse</t>
+  </si>
+  <si>
+    <t>Balance +11, Climb +11, Hide +8, Listen +5, Spot +6, Swim +8</t>
+  </si>
+  <si>
+    <t>Scent, Improved Initiative*, Weapon Finesse</t>
   </si>
 </sst>
 </file>
@@ -3284,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3765,7 +3782,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>21</v>
@@ -3796,12 +3813,1110 @@
         <v>27</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G12" si="0">SUM(G7+2)</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM(G12+2)</f>
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:G22" si="1">SUM(G16+2)</f>
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="H25" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G12" si="0">SUM(G7+2)</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM(G12+2)</f>
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:G22" si="1">SUM(G16+2)</f>
+        <v>17</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="H25" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_notes_/Animal Companions/AnimalCompanionWorksheet.xlsx
+++ b/_notes_/Animal Companions/AnimalCompanionWorksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="315" windowWidth="27555" windowHeight="10785" tabRatio="843" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="600" yWindow="315" windowWidth="27555" windowHeight="10785" tabRatio="843" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Boneclaw_AC" sheetId="4" r:id="rId1"/>
@@ -866,7 +866,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -883,6 +883,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4380,7 +4387,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4457,13 +4464,13 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>23</v>
@@ -4487,13 +4494,13 @@
         <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>23</v>
@@ -4513,8 +4520,8 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>95</v>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -4524,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>13</v>
@@ -4545,7 +4552,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
@@ -4554,8 +4561,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>23</v>
+      <c r="H9" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>23</v>
@@ -4563,94 +4570,94 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="1"/>
@@ -4692,32 +4699,32 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="9">
         <f>SUM(G12+2)</f>
         <v>15</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="1"/>
@@ -4736,7 +4743,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>23</v>
@@ -4746,7 +4753,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>17</v>
@@ -4767,7 +4774,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>23</v>
@@ -4777,7 +4784,7 @@
         <v>19</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>23</v>
@@ -4798,7 +4805,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>23</v>
@@ -4808,7 +4815,7 @@
         <v>21</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>30</v>
@@ -4829,7 +4836,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>23</v>
@@ -4839,7 +4846,7 @@
         <v>23</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>23</v>
@@ -4860,7 +4867,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
@@ -4870,7 +4877,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>21</v>
@@ -4901,7 +4908,7 @@
         <v>27</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>23</v>

--- a/_notes_/Animal Companions/AnimalCompanionWorksheet.xlsx
+++ b/_notes_/Animal Companions/AnimalCompanionWorksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="315" windowWidth="27555" windowHeight="10785" tabRatio="843" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="600" yWindow="315" windowWidth="27555" windowHeight="10785" tabRatio="843" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Boneclaw_AC" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="114">
   <si>
     <t>Progression:</t>
   </si>
@@ -363,13 +363,13 @@
     <t>`</t>
   </si>
   <si>
-    <t>Low Light Vision* , Alertness*, Weapon Finesse</t>
-  </si>
-  <si>
     <t>Balance +11, Climb +11, Hide +8, Listen +5, Spot +6, Swim +8</t>
   </si>
   <si>
     <t>Scent, Improved Initiative*, Weapon Finesse</t>
+  </si>
+  <si>
+    <t>Low Light Vision , Alertness*, Weapon Finesse</t>
   </si>
 </sst>
 </file>
@@ -3837,8 +3837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3856,7 +3856,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3912,13 +3912,13 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>23</v>
@@ -4386,7 +4386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4405,12 +4405,12 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11">

--- a/_notes_/Animal Companions/AnimalCompanionWorksheet.xlsx
+++ b/_notes_/Animal Companions/AnimalCompanionWorksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="315" windowWidth="27555" windowHeight="10785" tabRatio="843" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="600" yWindow="315" windowWidth="27555" windowHeight="10785" tabRatio="843" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Boneclaw_AC" sheetId="4" r:id="rId1"/>
@@ -14,21 +14,21 @@
     <sheet name="Jankx_AC" sheetId="6" r:id="rId5"/>
     <sheet name="Jhakar_AC" sheetId="7" r:id="rId6"/>
     <sheet name="Kivit_AC" sheetId="3" r:id="rId7"/>
-    <sheet name="Sand Howler_AC" sheetId="8" r:id="rId8"/>
-    <sheet name="Z'tal_AC" sheetId="9" r:id="rId9"/>
-    <sheet name="Kestrekel_AC" sheetId="10" r:id="rId10"/>
-    <sheet name="Owl_AC" sheetId="11" r:id="rId11"/>
-    <sheet name="Viper, Medium_AC" sheetId="12" r:id="rId12"/>
-    <sheet name="Eagle_AC" sheetId="13" r:id="rId13"/>
-    <sheet name="Rasclinn_AC" sheetId="14" r:id="rId14"/>
-    <sheet name="Viper, Large_AC" sheetId="16" r:id="rId15"/>
+    <sheet name="Z'tal_AC" sheetId="9" r:id="rId8"/>
+    <sheet name="Kestrekel_AC" sheetId="10" r:id="rId9"/>
+    <sheet name="Owl_AC" sheetId="11" r:id="rId10"/>
+    <sheet name="Viper, Medium_AC" sheetId="12" r:id="rId11"/>
+    <sheet name="Eagle_AC" sheetId="13" r:id="rId12"/>
+    <sheet name="Rasclinn_AC" sheetId="14" r:id="rId13"/>
+    <sheet name="Viper, Large_AC" sheetId="16" r:id="rId14"/>
+    <sheet name="Sand_Howler_AC" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="115">
   <si>
     <t>Progression:</t>
   </si>
@@ -300,15 +300,9 @@
     <t xml:space="preserve">Armor Skin </t>
   </si>
   <si>
-    <t>Imp Init</t>
-  </si>
-  <si>
     <t>Pwr Att</t>
   </si>
   <si>
-    <t>Spg Att</t>
-  </si>
-  <si>
     <t>Gr Fortitude</t>
   </si>
   <si>
@@ -370,6 +364,15 @@
   </si>
   <si>
     <t>Low Light Vision , Alertness*, Weapon Finesse</t>
+  </si>
+  <si>
+    <t>Skills: Jump +5, Move Silently +4, Spot +9, Survival +1*</t>
+  </si>
+  <si>
+    <t>Feats: Multiattack, Weapon Focus (bite)*, Darkvision, Low-light vision, Scent</t>
+  </si>
+  <si>
+    <t>WF (Creature)*</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,6 +708,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -866,7 +875,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -892,6 +901,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1291,7 +1313,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -1491,7 +1513,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
       <c r="I14" s="3"/>
@@ -1739,515 +1761,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <f>SUM(G6+2)</f>
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8:G12" si="0">SUM(G7+2)</f>
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="2">
-        <f>SUM(G12+2)</f>
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" ref="G17:G22" si="1">SUM(G16+2)</f>
-        <v>17</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:K22"/>
   <sheetViews>
@@ -2316,7 +1829,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -2346,7 +1859,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -2520,7 +2033,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -2627,7 +2140,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>23</v>
@@ -2771,7 +2284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:K22"/>
   <sheetViews>
@@ -2840,7 +2353,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -2870,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -2918,7 +2431,7 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3045,12 +2558,12 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -3157,7 +2670,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>23</v>
@@ -3205,7 +2718,7 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3304,7 +2817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K22"/>
   <sheetViews>
@@ -3327,7 +2840,7 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3378,7 +2891,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -3408,7 +2921,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -3535,7 +3048,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
@@ -3582,7 +3095,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -3689,7 +3202,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>23</v>
@@ -3833,11 +3346,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3856,12 +3369,12 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3942,7 +3455,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -3972,7 +3485,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -4099,7 +3612,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
@@ -4118,7 +3631,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -4256,7 +3769,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>23</v>
@@ -4373,7 +3886,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="H25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4382,7 +3895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -4405,12 +3918,12 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4491,7 +4004,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -4552,7 +4065,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
@@ -4648,7 +4161,7 @@
         <v>60</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
@@ -4667,7 +4180,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -4867,7 +4380,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
@@ -4922,10 +4435,841 @@
     </row>
     <row r="25" spans="1:11">
       <c r="H25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="14" max="14" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G12" si="0">SUM(G7+2)</f>
+        <v>6</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="F13" s="1"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(G12+2)</f>
+        <v>16</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:G22" si="1">SUM(G16+2)</f>
+        <v>18</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="H25" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4999,7 +5343,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -5195,7 +5539,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
       <c r="I14" s="3"/>
@@ -5512,7 +5856,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -5712,7 +6056,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
       <c r="I14" s="3"/>
@@ -6027,7 +6371,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -6225,7 +6569,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
       <c r="I14" s="3"/>
@@ -6543,7 +6887,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -6740,7 +7084,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -7051,7 +7395,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -7249,7 +7593,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
       <c r="I14" s="3"/>
@@ -7567,7 +7911,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -7746,7 +8090,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
@@ -7764,7 +8108,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -7898,7 +8242,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>23</v>
@@ -8008,521 +8352,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <f>SUM(G6+2)</f>
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8:G12" si="0">SUM(G7+2)</f>
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="2">
-        <f>SUM(G12+2)</f>
-        <v>16</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" ref="G17:G22" si="1">SUM(G16+2)</f>
-        <v>18</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I22"/>
   <sheetViews>
@@ -8544,7 +8373,7 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8793,7 +8622,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
       <c r="I14" s="3"/>
@@ -8841,7 +8670,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
@@ -9040,4 +8869,513 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM(G6+2)</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G12" si="0">SUM(G7+2)</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM(G12+2)</f>
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:G22" si="1">SUM(G16+2)</f>
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>